--- a/Data/EC/NIT-9000705424.xlsx
+++ b/Data/EC/NIT-9000705424.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B5C9F1-4F2A-4673-99FA-5A70EC4F0850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE9822B-8B34-4189-B789-6CFBEE059153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B155C2D7-2E31-4C7B-8C42-745359D8FDDB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1CF4C75-0898-4E13-84C0-FE97E778BBA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,43 +71,43 @@
     <t>YULIETH PAOLA MEDRANO PATRON</t>
   </si>
   <si>
+    <t>1708</t>
+  </si>
+  <si>
     <t>1709</t>
   </si>
   <si>
-    <t>1708</t>
-  </si>
-  <si>
     <t>1049829855</t>
   </si>
   <si>
     <t>ANA MARIA MAY BELTRAN</t>
   </si>
   <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1712</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
     <t>1128061154</t>
   </si>
   <si>
     <t>YESID MENDOZA SANDOVAL</t>
   </si>
   <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
   </si>
   <si>
     <t>1002241811</t>
@@ -215,7 +215,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -228,9 +230,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,23 +430,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,10 +474,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C685FB-096E-DEAB-D154-12B244D5BC7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB413A50-24CB-99B6-9C02-0F30C04BE131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848AAC1C-73ED-4346-9609-6AB05C0C6836}">
-  <dimension ref="B2:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6CBF9-C241-4CB6-8867-0990698D0B7B}">
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -988,7 +988,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>304533</v>
+        <v>609066</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>32000</v>
+        <v>11733</v>
       </c>
       <c r="G18" s="18">
         <v>800000</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>11733</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
         <v>800000</v>
@@ -1151,7 +1151,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>36000</v>
+        <v>27600</v>
       </c>
       <c r="G20" s="18">
         <v>900000</v>
@@ -1243,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>27600</v>
+        <v>36000</v>
       </c>
       <c r="G24" s="18">
         <v>900000</v>
@@ -1253,56 +1253,286 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>25200</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="18">
         <v>900000</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="18">
+        <v>11733</v>
+      </c>
+      <c r="G28" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="18">
+        <v>27600</v>
+      </c>
+      <c r="G30" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="24">
+        <v>25200</v>
+      </c>
+      <c r="G35" s="24">
+        <v>900000</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
